--- a/Power BI/Aula 5/Clientes.xlsx
+++ b/Power BI/Aula 5/Clientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dioni\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dioni\OneDrive\Área de Trabalho\Youth Data 218.02\Turma-Python-218.2\Power BI\Aula 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB386CFE-40CC-45BC-8D06-A2CA1EC28BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ACEBEF-3697-4A7C-B148-65A0F59B78C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{8D1E81A6-B6AB-464D-90EA-052DC21CE095}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8D1E81A6-B6AB-464D-90EA-052DC21CE095}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -11308,7 +11308,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11645,11 +11645,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49FD7E4-A728-4C63-9F74-77234A53E914}">
   <dimension ref="A1:H1591"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1591"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
